--- a/utils/词性表.xlsx
+++ b/utils/词性表.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B14BB-97BC-4BA1-9161-C8BB4BBA521B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView xWindow="8535" yWindow="600" windowWidth="25380" windowHeight="20175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
     <sheet name="zh" sheetId="3" r:id="rId2"/>
     <sheet name="hanlp simplify" sheetId="6" r:id="rId3"/>
     <sheet name="Stanford simplify" sheetId="7" r:id="rId4"/>
+    <sheet name="all" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="778">
   <si>
     <t>nltk</t>
   </si>
@@ -2266,14 +2274,130 @@
   </si>
   <si>
     <t>simplify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanlp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stanford</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jieba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>着</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,6 +2468,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2635,19 +2762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2678,7 +2805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2701,7 +2828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2724,7 +2851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2747,7 +2874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2770,7 +2897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2816,7 +2943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2839,7 +2966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2862,7 +2989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2882,7 +3009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2905,7 +3032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2928,7 +3055,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I14" s="3" t="s">
         <v>73</v>
       </c>
@@ -2942,7 +3069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I15" s="3" t="s">
         <v>77</v>
       </c>
@@ -2956,7 +3083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2967,7 +3094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2978,7 +3105,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2989,7 +3116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -3006,7 +3133,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I20" s="3" t="s">
         <v>94</v>
       </c>
@@ -3014,7 +3141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -3028,7 +3155,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3045,7 +3172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -3056,7 +3183,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3073,7 +3200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -3090,7 +3217,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3107,7 +3234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -3124,7 +3251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3141,7 +3268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3158,7 +3285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -3169,7 +3296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I31" s="3" t="s">
         <v>131</v>
       </c>
@@ -3177,7 +3304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I32" s="3" t="s">
         <v>133</v>
       </c>
@@ -3185,7 +3312,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I33" s="3" t="s">
         <v>135</v>
       </c>
@@ -3193,7 +3320,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I34" s="3" t="s">
         <v>137</v>
       </c>
@@ -3201,7 +3328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I35" s="3" t="s">
         <v>139</v>
       </c>
@@ -3209,7 +3336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -3220,7 +3347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -3231,7 +3358,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3242,7 +3369,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3253,7 +3380,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3264,7 +3391,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -3275,7 +3402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -3289,7 +3416,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -3303,7 +3430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -3317,7 +3444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -3332,7 +3459,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="I1:J36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:J36">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3342,12 +3469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:W60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="7" max="8" width="15.375" customWidth="1"/>
@@ -3355,7 +3484,7 @@
     <col min="19" max="19" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -3372,7 +3501,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -3425,7 +3554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25">
+    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -3478,7 +3607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3531,7 +3660,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -3581,7 +3710,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -3634,7 +3763,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -3687,7 +3816,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -3740,7 +3869,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>244</v>
       </c>
@@ -3784,7 +3913,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -3837,7 +3966,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -3890,7 +4019,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -3934,7 +4063,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -3987,7 +4116,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -4040,7 +4169,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -4093,7 +4222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -4146,7 +4275,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14.25">
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -4199,7 +4328,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14.25">
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -4249,7 +4378,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14.25">
+    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>350</v>
       </c>
@@ -4302,7 +4431,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14.25">
+    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>362</v>
       </c>
@@ -4355,7 +4484,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.25">
+    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -4399,7 +4528,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.25">
+    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>384</v>
       </c>
@@ -4443,7 +4572,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14.25">
+    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -4496,7 +4625,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14.25">
+    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>402</v>
       </c>
@@ -4549,7 +4678,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14.25">
+    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>414</v>
       </c>
@@ -4602,7 +4731,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14.25">
+    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>234</v>
       </c>
@@ -4640,7 +4769,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14.25">
+    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>246</v>
       </c>
@@ -4678,7 +4807,7 @@
         <v>16718</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14.25">
+    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>256</v>
       </c>
@@ -4725,7 +4854,7 @@
         <v>103156</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14.25">
+    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>269</v>
       </c>
@@ -4772,7 +4901,7 @@
         <v>13313</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14.25">
+    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>357</v>
       </c>
@@ -4810,7 +4939,7 @@
         <v>27025</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14.25">
+    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>242</v>
       </c>
@@ -4848,7 +4977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.25">
+    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -4886,7 +5015,7 @@
         <v>109498</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.25">
+    <row r="33" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>470</v>
       </c>
@@ -4924,7 +5053,7 @@
         <v>7858</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14.25">
+    <row r="34" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -4962,7 +5091,7 @@
         <v>55687</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.25">
+    <row r="35" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>254</v>
       </c>
@@ -4991,7 +5120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14.25">
+    <row r="36" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>483</v>
       </c>
@@ -5008,7 +5137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14.25">
+    <row r="37" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>486</v>
       </c>
@@ -5025,7 +5154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.25">
+    <row r="38" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>489</v>
       </c>
@@ -5051,7 +5180,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14.25">
+    <row r="39" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>493</v>
       </c>
@@ -5077,7 +5206,7 @@
         <v>32504</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.25">
+    <row r="40" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>497</v>
       </c>
@@ -5103,7 +5232,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14.25">
+    <row r="41" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>411</v>
       </c>
@@ -5129,7 +5258,7 @@
         <v>13527</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.25">
+    <row r="42" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>309</v>
       </c>
@@ -5146,7 +5275,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>506</v>
       </c>
@@ -5166,7 +5295,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14.25">
+    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>511</v>
       </c>
@@ -5183,7 +5312,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14.25">
+    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>320</v>
       </c>
@@ -5200,7 +5329,7 @@
         <v>119361</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14.25">
+    <row r="46" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>516</v>
       </c>
@@ -5217,7 +5346,7 @@
         <v>14568</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14.25">
+    <row r="47" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>519</v>
       </c>
@@ -5234,7 +5363,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14.25">
+    <row r="48" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -5251,7 +5380,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="14.25">
+    <row r="49" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -5277,7 +5406,7 @@
         <v>340030</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14.25">
+    <row r="50" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>527</v>
       </c>
@@ -5303,7 +5432,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="14.25">
+    <row r="51" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -5329,7 +5458,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="14.25">
+    <row r="52" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>535</v>
       </c>
@@ -5346,7 +5475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14.25">
+    <row r="53" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>538</v>
       </c>
@@ -5372,7 +5501,7 @@
         <v>37187</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14.25">
+    <row r="54" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>541</v>
       </c>
@@ -5389,7 +5518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>266</v>
       </c>
@@ -5406,7 +5535,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14.25">
+    <row r="56" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>544</v>
       </c>
@@ -5432,7 +5561,7 @@
         <v>459458</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14.25">
+    <row r="57" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>548</v>
       </c>
@@ -5458,7 +5587,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="14.25">
+    <row r="58" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>553</v>
       </c>
@@ -5475,7 +5604,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="14.25">
+    <row r="59" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>556</v>
       </c>
@@ -5501,7 +5630,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14.25">
+    <row r="60" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -5518,7 +5647,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>562</v>
       </c>
@@ -5529,7 +5658,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>286</v>
       </c>
@@ -5540,7 +5669,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>564</v>
       </c>
@@ -5551,7 +5680,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>566</v>
       </c>
@@ -5562,7 +5691,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>568</v>
       </c>
@@ -5573,7 +5702,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>570</v>
       </c>
@@ -5584,7 +5713,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>572</v>
       </c>
@@ -5595,7 +5724,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>574</v>
       </c>
@@ -5606,7 +5735,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>576</v>
       </c>
@@ -5617,7 +5746,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>578</v>
       </c>
@@ -5628,7 +5757,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>580</v>
       </c>
@@ -5639,7 +5768,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -5650,7 +5779,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>374</v>
       </c>
@@ -5661,7 +5790,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>317</v>
       </c>
@@ -5672,7 +5801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>582</v>
       </c>
@@ -5683,7 +5812,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>584</v>
       </c>
@@ -5694,7 +5823,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>328</v>
       </c>
@@ -5705,7 +5834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>586</v>
       </c>
@@ -5716,7 +5845,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>588</v>
       </c>
@@ -5727,7 +5856,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>590</v>
       </c>
@@ -5738,7 +5867,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>338</v>
       </c>
@@ -5749,7 +5878,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>482</v>
       </c>
@@ -5760,7 +5889,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>593</v>
       </c>
@@ -5771,7 +5900,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>485</v>
       </c>
@@ -5782,7 +5911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>595</v>
       </c>
@@ -5793,7 +5922,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>597</v>
       </c>
@@ -5804,7 +5933,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>599</v>
       </c>
@@ -5815,7 +5944,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>601</v>
       </c>
@@ -5826,7 +5955,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>488</v>
       </c>
@@ -5837,7 +5966,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>604</v>
       </c>
@@ -5848,7 +5977,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>606</v>
       </c>
@@ -5859,7 +5988,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>608</v>
       </c>
@@ -5870,7 +5999,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>348</v>
       </c>
@@ -5881,7 +6010,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>360</v>
       </c>
@@ -5892,7 +6021,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>499</v>
       </c>
@@ -5903,7 +6032,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>370</v>
       </c>
@@ -5914,7 +6043,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>505</v>
       </c>
@@ -5925,7 +6054,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>611</v>
       </c>
@@ -5936,7 +6065,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>614</v>
       </c>
@@ -5947,7 +6076,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>616</v>
       </c>
@@ -5958,7 +6087,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>618</v>
       </c>
@@ -5969,7 +6098,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>621</v>
       </c>
@@ -5980,7 +6109,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>513</v>
       </c>
@@ -5991,7 +6120,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>624</v>
       </c>
@@ -5999,7 +6128,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>515</v>
       </c>
@@ -6010,7 +6139,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>518</v>
       </c>
@@ -6021,7 +6150,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>625</v>
       </c>
@@ -6032,7 +6161,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>628</v>
       </c>
@@ -6043,7 +6172,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>631</v>
       </c>
@@ -6054,7 +6183,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>634</v>
       </c>
@@ -6065,7 +6194,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>521</v>
       </c>
@@ -6076,7 +6205,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>636</v>
       </c>
@@ -6087,7 +6216,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>524</v>
       </c>
@@ -6098,7 +6227,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>640</v>
       </c>
@@ -6109,7 +6238,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>641</v>
       </c>
@@ -6120,7 +6249,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>382</v>
       </c>
@@ -6131,7 +6260,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>391</v>
       </c>
@@ -6142,7 +6271,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>643</v>
       </c>
@@ -6153,7 +6282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>532</v>
       </c>
@@ -6164,7 +6293,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>537</v>
       </c>
@@ -6175,7 +6304,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>647</v>
       </c>
@@ -6186,7 +6315,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>400</v>
       </c>
@@ -6197,7 +6326,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>649</v>
       </c>
@@ -6208,7 +6337,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>651</v>
       </c>
@@ -6219,7 +6348,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>653</v>
       </c>
@@ -6230,7 +6359,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>412</v>
       </c>
@@ -6241,7 +6370,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>655</v>
       </c>
@@ -6252,7 +6381,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>658</v>
       </c>
@@ -6263,7 +6392,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>661</v>
       </c>
@@ -6274,7 +6403,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>664</v>
       </c>
@@ -6285,7 +6414,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>667</v>
       </c>
@@ -6296,7 +6425,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>669</v>
       </c>
@@ -6307,7 +6436,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>672</v>
       </c>
@@ -6318,7 +6447,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>675</v>
       </c>
@@ -6329,7 +6458,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>678</v>
       </c>
@@ -6340,7 +6469,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>433</v>
       </c>
@@ -6351,7 +6480,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>440</v>
       </c>
@@ -6362,7 +6491,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>684</v>
       </c>
@@ -6373,7 +6502,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>686</v>
       </c>
@@ -6384,7 +6513,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>688</v>
       </c>
@@ -6395,7 +6524,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>691</v>
       </c>
@@ -6406,7 +6535,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>447</v>
       </c>
@@ -6417,7 +6546,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>695</v>
       </c>
@@ -6428,7 +6557,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>697</v>
       </c>
@@ -6439,7 +6568,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>550</v>
       </c>
@@ -6450,7 +6579,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>555</v>
       </c>
@@ -6461,7 +6590,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>558</v>
       </c>
@@ -6472,7 +6601,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>561</v>
       </c>
@@ -6483,17 +6612,17 @@
         <v>559</v>
       </c>
     </row>
-    <row r="249" spans="4:4">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D249" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D261" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="273" spans="4:5">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D273" t="s">
         <v>703</v>
       </c>
@@ -6501,7 +6630,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="276" spans="4:5">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D276" t="s">
         <v>705</v>
       </c>
@@ -6509,12 +6638,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="288" spans="4:5">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D288" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="300" spans="4:5">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D300" t="s">
         <v>708</v>
       </c>
@@ -6522,7 +6651,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="309" spans="4:6">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D309" t="s">
         <v>710</v>
       </c>
@@ -6530,7 +6659,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="312" spans="4:6">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D312" t="s">
         <v>712</v>
       </c>
@@ -6541,7 +6670,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="331" spans="4:11">
+    <row r="331" spans="4:11" x14ac:dyDescent="0.15">
       <c r="J331" t="s">
         <v>715</v>
       </c>
@@ -6549,7 +6678,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="336" spans="4:11">
+    <row r="336" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D336" t="s">
         <v>717</v>
       </c>
@@ -6563,17 +6692,17 @@
         <v>720</v>
       </c>
     </row>
-    <row r="342" spans="4:10">
+    <row r="342" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D342" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="343" spans="4:10">
+    <row r="343" spans="4:10" x14ac:dyDescent="0.15">
       <c r="J343" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="348" spans="4:10">
+    <row r="348" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D348" t="s">
         <v>723</v>
       </c>
@@ -6587,7 +6716,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="360" spans="4:5">
+    <row r="360" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D360" t="s">
         <v>708</v>
       </c>
@@ -6595,7 +6724,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="378" spans="4:6">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D378" t="s">
         <v>727</v>
       </c>
@@ -6603,7 +6732,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="384" spans="4:6">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D384" t="s">
         <v>729</v>
       </c>
@@ -6614,12 +6743,12 @@
         <v>731</v>
       </c>
     </row>
-    <row r="396" spans="4:4">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D396" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="411" spans="4:5">
+    <row r="411" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D411" t="s">
         <v>733</v>
       </c>
@@ -6627,12 +6756,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="414" spans="4:5">
+    <row r="414" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D414" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="423" spans="4:5">
+    <row r="423" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D423" t="s">
         <v>736</v>
       </c>
@@ -6648,21 +6777,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="N4" sqref="N4:Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
     <col min="17" max="17" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -6673,7 +6802,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -6687,7 +6816,7 @@
         <v>184976</v>
       </c>
       <c r="F3" t="str">
-        <f>INDEX(J:J,MATCH(D3,H:H))</f>
+        <f t="shared" ref="F3:F38" si="0">INDEX(J:J,MATCH(D3,H:H))</f>
         <v>形容词</v>
       </c>
       <c r="H3" t="s">
@@ -6709,7 +6838,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -6723,7 +6852,7 @@
         <v>7879</v>
       </c>
       <c r="F4" t="str">
-        <f>INDEX(J:J,MATCH(D4,H:H))</f>
+        <f t="shared" si="0"/>
         <v>形容词性语素</v>
       </c>
       <c r="H4" t="s">
@@ -6751,7 +6880,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -6765,7 +6894,7 @@
         <v>25081</v>
       </c>
       <c r="F5" t="str">
-        <f>INDEX(J:J,MATCH(D5,H:H))</f>
+        <f t="shared" si="0"/>
         <v>区别词</v>
       </c>
       <c r="H5" t="s">
@@ -6799,7 +6928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -6813,7 +6942,7 @@
         <v>94</v>
       </c>
       <c r="F6" t="str">
-        <f>INDEX(J:J,MATCH(D6,H:H))</f>
+        <f t="shared" si="0"/>
         <v>区别语素</v>
       </c>
       <c r="H6" t="s">
@@ -6844,7 +6973,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -6858,7 +6987,7 @@
         <v>108082</v>
       </c>
       <c r="F7" t="str">
-        <f>INDEX(J:J,MATCH(D7,H:H))</f>
+        <f t="shared" si="0"/>
         <v>连词</v>
       </c>
       <c r="H7" t="s">
@@ -6892,7 +7021,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>738</v>
       </c>
@@ -6906,7 +7035,7 @@
         <v>166774</v>
       </c>
       <c r="F8" t="str">
-        <f>INDEX(J:J,MATCH(D8,H:H))</f>
+        <f t="shared" si="0"/>
         <v>副词</v>
       </c>
       <c r="H8" t="s">
@@ -6940,7 +7069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6954,7 +7083,7 @@
         <v>1815</v>
       </c>
       <c r="F9" t="str">
-        <f>INDEX(J:J,MATCH(D9,H:H))</f>
+        <f t="shared" si="0"/>
         <v>辄,俱,复之类的副词</v>
       </c>
       <c r="H9" t="s">
@@ -6988,7 +7117,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -7002,7 +7131,7 @@
         <v>65981</v>
       </c>
       <c r="F10" t="str">
-        <f>INDEX(J:J,MATCH(D10,H:H))</f>
+        <f t="shared" si="0"/>
         <v>叹词</v>
       </c>
       <c r="H10" t="s">
@@ -7036,7 +7165,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>739</v>
       </c>
@@ -7050,7 +7179,7 @@
         <v>370</v>
       </c>
       <c r="F11" t="str">
-        <f>INDEX(J:J,MATCH(D11,H:H))</f>
+        <f t="shared" si="0"/>
         <v>前缀</v>
       </c>
       <c r="H11" t="s">
@@ -7084,7 +7213,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -7098,7 +7227,7 @@
         <v>47452</v>
       </c>
       <c r="F12" t="str">
-        <f>INDEX(J:J,MATCH(D12,H:H))</f>
+        <f t="shared" si="0"/>
         <v>成语</v>
       </c>
       <c r="H12" t="s">
@@ -7132,7 +7261,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -7146,7 +7275,7 @@
         <v>18314</v>
       </c>
       <c r="F13" t="str">
-        <f>INDEX(J:J,MATCH(D13,H:H))</f>
+        <f t="shared" si="0"/>
         <v>简称略语</v>
       </c>
       <c r="H13" t="s">
@@ -7180,7 +7309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>350</v>
       </c>
@@ -7194,7 +7323,7 @@
         <v>5803</v>
       </c>
       <c r="F14" t="str">
-        <f>INDEX(J:J,MATCH(D14,H:H))</f>
+        <f t="shared" si="0"/>
         <v>后缀</v>
       </c>
       <c r="H14" t="s">
@@ -7228,7 +7357,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -7242,7 +7371,7 @@
         <v>366455</v>
       </c>
       <c r="F15" t="str">
-        <f>INDEX(J:J,MATCH(D15,H:H))</f>
+        <f t="shared" si="0"/>
         <v>数词</v>
       </c>
       <c r="H15" t="s">
@@ -7276,7 +7405,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>384</v>
       </c>
@@ -7290,7 +7419,7 @@
         <v>1347701</v>
       </c>
       <c r="F16" t="str">
-        <f>INDEX(J:J,MATCH(D16,H:H))</f>
+        <f t="shared" si="0"/>
         <v>名词</v>
       </c>
       <c r="H16" t="s">
@@ -7324,7 +7453,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>393</v>
       </c>
@@ -7338,7 +7467,7 @@
         <v>76924</v>
       </c>
       <c r="F17" t="str">
-        <f>INDEX(J:J,MATCH(D17,H:H))</f>
+        <f t="shared" si="0"/>
         <v>植物名</v>
       </c>
       <c r="H17" t="s">
@@ -7372,7 +7501,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>402</v>
       </c>
@@ -7386,7 +7515,7 @@
         <v>107403</v>
       </c>
       <c r="F18" t="str">
-        <f>INDEX(J:J,MATCH(D18,H:H))</f>
+        <f t="shared" si="0"/>
         <v>名词性语素</v>
       </c>
       <c r="H18" t="s">
@@ -7420,7 +7549,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>414</v>
       </c>
@@ -7434,7 +7563,7 @@
         <v>96581</v>
       </c>
       <c r="F19" t="str">
-        <f>INDEX(J:J,MATCH(D19,H:H))</f>
+        <f t="shared" si="0"/>
         <v>医药疾病等健康相关名词</v>
       </c>
       <c r="H19" t="s">
@@ -7468,7 +7597,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>234</v>
       </c>
@@ -7482,7 +7611,7 @@
         <v>6910</v>
       </c>
       <c r="F20" t="str">
-        <f>INDEX(J:J,MATCH(D20,H:H))</f>
+        <f t="shared" si="0"/>
         <v>机构相关（不是独立机构名）</v>
       </c>
       <c r="H20" t="s">
@@ -7516,7 +7645,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>246</v>
       </c>
@@ -7530,7 +7659,7 @@
         <v>15620</v>
       </c>
       <c r="F21" t="str">
-        <f>INDEX(J:J,MATCH(D21,H:H))</f>
+        <f t="shared" si="0"/>
         <v>名词性惯用语</v>
       </c>
       <c r="H21" t="s">
@@ -7564,7 +7693,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -7578,7 +7707,7 @@
         <v>54578</v>
       </c>
       <c r="F22" t="str">
-        <f>INDEX(J:J,MATCH(D22,H:H))</f>
+        <f t="shared" si="0"/>
         <v>地名</v>
       </c>
       <c r="H22" t="s">
@@ -7612,7 +7741,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>269</v>
       </c>
@@ -7626,7 +7755,7 @@
         <v>57376</v>
       </c>
       <c r="F23" t="str">
-        <f>INDEX(J:J,MATCH(D23,H:H))</f>
+        <f t="shared" si="0"/>
         <v>机构团体名</v>
       </c>
       <c r="H23" t="s">
@@ -7660,7 +7789,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>357</v>
       </c>
@@ -7674,7 +7803,7 @@
         <v>159568</v>
       </c>
       <c r="F24" t="str">
-        <f>INDEX(J:J,MATCH(D24,H:H))</f>
+        <f t="shared" si="0"/>
         <v>其他专名</v>
       </c>
       <c r="H24" t="s">
@@ -7708,7 +7837,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -7722,7 +7851,7 @@
         <v>658</v>
       </c>
       <c r="F25" t="str">
-        <f>INDEX(J:J,MATCH(D25,H:H))</f>
+        <f t="shared" si="0"/>
         <v>其他专名</v>
       </c>
       <c r="H25" t="s">
@@ -7756,7 +7885,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>470</v>
       </c>
@@ -7770,7 +7899,7 @@
         <v>624</v>
       </c>
       <c r="F26" t="str">
-        <f>INDEX(J:J,MATCH(D26,H:H))</f>
+        <f t="shared" si="0"/>
         <v>拟声词</v>
       </c>
       <c r="H26" t="s">
@@ -7804,7 +7933,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>390</v>
       </c>
@@ -7818,7 +7947,7 @@
         <v>148041</v>
       </c>
       <c r="F27" t="str">
-        <f>INDEX(J:J,MATCH(D27,H:H))</f>
+        <f t="shared" si="0"/>
         <v>介词</v>
       </c>
       <c r="H27" t="s">
@@ -7852,7 +7981,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>254</v>
       </c>
@@ -7866,7 +7995,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="str">
-        <f>INDEX(J:J,MATCH(D28,H:H))</f>
+        <f t="shared" si="0"/>
         <v>介词“被”</v>
       </c>
       <c r="H28" t="s">
@@ -7900,7 +8029,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>486</v>
       </c>
@@ -7914,7 +8043,7 @@
         <v>77122</v>
       </c>
       <c r="F29" t="str">
-        <f>INDEX(J:J,MATCH(D29,H:H))</f>
+        <f t="shared" si="0"/>
         <v>量词</v>
       </c>
       <c r="H29" t="s">
@@ -7948,7 +8077,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>489</v>
       </c>
@@ -7962,7 +8091,7 @@
         <v>73374</v>
       </c>
       <c r="F30" t="str">
-        <f>INDEX(J:J,MATCH(D30,H:H))</f>
+        <f t="shared" si="0"/>
         <v>代词</v>
       </c>
       <c r="H30" t="s">
@@ -7996,7 +8125,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>497</v>
       </c>
@@ -8010,7 +8139,7 @@
         <v>15043</v>
       </c>
       <c r="F31" t="str">
-        <f>INDEX(J:J,MATCH(D31,H:H))</f>
+        <f t="shared" si="0"/>
         <v>时间词性语素</v>
       </c>
       <c r="H31" t="s">
@@ -8044,7 +8173,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>408</v>
       </c>
@@ -8058,7 +8187,7 @@
         <v>358539</v>
       </c>
       <c r="F32" t="str">
-        <f>INDEX(J:J,MATCH(D32,H:H))</f>
+        <f t="shared" si="0"/>
         <v>助词</v>
       </c>
       <c r="H32" t="s">
@@ -8092,7 +8221,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>506</v>
       </c>
@@ -8106,7 +8235,7 @@
         <v>1254032</v>
       </c>
       <c r="F33" t="str">
-        <f>INDEX(J:J,MATCH(D33,H:H))</f>
+        <f t="shared" si="0"/>
         <v>动词</v>
       </c>
       <c r="H33" t="s">
@@ -8140,7 +8269,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>511</v>
       </c>
@@ -8154,7 +8283,7 @@
         <v>67181</v>
       </c>
       <c r="F34" t="str">
-        <f>INDEX(J:J,MATCH(D34,H:H))</f>
+        <f t="shared" si="0"/>
         <v>动词性语素</v>
       </c>
       <c r="H34" t="s">
@@ -8188,7 +8317,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>519</v>
       </c>
@@ -8202,7 +8331,7 @@
         <v>21</v>
       </c>
       <c r="F35" t="str">
-        <f>INDEX(J:J,MATCH(D35,H:H))</f>
+        <f t="shared" si="0"/>
         <v>名动词</v>
       </c>
       <c r="H35" t="s">
@@ -8236,7 +8365,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>522</v>
       </c>
@@ -8250,7 +8379,7 @@
         <v>1661489</v>
       </c>
       <c r="F36" t="str">
-        <f>INDEX(J:J,MATCH(D36,H:H))</f>
+        <f t="shared" si="0"/>
         <v>破折号，全角：——</v>
       </c>
       <c r="H36" t="s">
@@ -8284,7 +8413,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>530</v>
       </c>
@@ -8298,7 +8427,7 @@
         <v>428444</v>
       </c>
       <c r="F37" t="str">
-        <f>INDEX(J:J,MATCH(D37,H:H))</f>
+        <f t="shared" si="0"/>
         <v>省略号，全角：……</v>
       </c>
       <c r="H37" t="s">
@@ -8323,7 +8452,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>535</v>
       </c>
@@ -8337,7 +8466,7 @@
         <v>215</v>
       </c>
       <c r="F38" t="str">
-        <f>INDEX(J:J,MATCH(D38,H:H))</f>
+        <f t="shared" si="0"/>
         <v>语气语素</v>
       </c>
       <c r="H38" t="s">
@@ -8362,7 +8491,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>538</v>
       </c>
@@ -8391,7 +8520,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>541</v>
       </c>
@@ -8408,7 +8537,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -8425,7 +8554,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>548</v>
       </c>
@@ -8442,7 +8571,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>553</v>
       </c>
@@ -8459,7 +8588,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>556</v>
       </c>
@@ -8476,7 +8605,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -8493,7 +8622,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>562</v>
       </c>
@@ -8510,7 +8639,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>286</v>
       </c>
@@ -8527,7 +8656,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>564</v>
       </c>
@@ -8544,7 +8673,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>566</v>
       </c>
@@ -8561,7 +8690,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>568</v>
       </c>
@@ -8578,7 +8707,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>570</v>
       </c>
@@ -8595,7 +8724,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>572</v>
       </c>
@@ -8612,7 +8741,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>574</v>
       </c>
@@ -8629,7 +8758,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>576</v>
       </c>
@@ -8646,7 +8775,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>578</v>
       </c>
@@ -8663,7 +8792,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>580</v>
       </c>
@@ -8680,7 +8809,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -8697,7 +8826,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>740</v>
       </c>
@@ -8714,7 +8843,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>374</v>
       </c>
@@ -8731,7 +8860,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -8748,7 +8877,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>741</v>
       </c>
@@ -8765,7 +8894,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -8782,7 +8911,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>338</v>
       </c>
@@ -8799,7 +8928,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>593</v>
       </c>
@@ -8816,7 +8945,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>348</v>
       </c>
@@ -8833,7 +8962,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>360</v>
       </c>
@@ -8850,7 +8979,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>742</v>
       </c>
@@ -8867,7 +8996,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>370</v>
       </c>
@@ -8884,7 +9013,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>382</v>
       </c>
@@ -8901,7 +9030,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>391</v>
       </c>
@@ -8918,7 +9047,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>743</v>
       </c>
@@ -8935,7 +9064,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>537</v>
       </c>
@@ -8952,7 +9081,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>647</v>
       </c>
@@ -8969,7 +9098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>400</v>
       </c>
@@ -8986,7 +9115,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>744</v>
       </c>
@@ -9003,7 +9132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -9020,7 +9149,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>550</v>
       </c>
@@ -9037,7 +9166,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>745</v>
       </c>
@@ -9054,7 +9183,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>558</v>
       </c>
@@ -9071,7 +9200,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H80" t="s">
         <v>588</v>
       </c>
@@ -9082,7 +9211,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="81" spans="8:10">
+    <row r="81" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H81" t="s">
         <v>590</v>
       </c>
@@ -9093,7 +9222,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="8:10">
+    <row r="82" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H82" t="s">
         <v>338</v>
       </c>
@@ -9104,7 +9233,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="8:10">
+    <row r="83" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H83" t="s">
         <v>482</v>
       </c>
@@ -9115,7 +9244,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="8:10">
+    <row r="84" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H84" t="s">
         <v>593</v>
       </c>
@@ -9126,7 +9255,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="85" spans="8:10">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H85" t="s">
         <v>485</v>
       </c>
@@ -9137,7 +9266,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="8:10">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H86" t="s">
         <v>595</v>
       </c>
@@ -9148,7 +9277,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="87" spans="8:10">
+    <row r="87" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H87" t="s">
         <v>597</v>
       </c>
@@ -9159,7 +9288,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="88" spans="8:10">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H88" t="s">
         <v>599</v>
       </c>
@@ -9170,7 +9299,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="89" spans="8:10">
+    <row r="89" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H89" t="s">
         <v>601</v>
       </c>
@@ -9181,7 +9310,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="90" spans="8:10">
+    <row r="90" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H90" t="s">
         <v>488</v>
       </c>
@@ -9192,7 +9321,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="91" spans="8:10">
+    <row r="91" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H91" t="s">
         <v>604</v>
       </c>
@@ -9203,7 +9332,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="8:10">
+    <row r="92" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H92" t="s">
         <v>606</v>
       </c>
@@ -9214,7 +9343,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="93" spans="8:10">
+    <row r="93" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H93" t="s">
         <v>608</v>
       </c>
@@ -9225,7 +9354,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="94" spans="8:10">
+    <row r="94" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H94" t="s">
         <v>348</v>
       </c>
@@ -9236,7 +9365,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="95" spans="8:10">
+    <row r="95" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H95" t="s">
         <v>360</v>
       </c>
@@ -9247,7 +9376,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="8:10">
+    <row r="96" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H96" t="s">
         <v>499</v>
       </c>
@@ -9258,7 +9387,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="8:10">
+    <row r="97" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H97" t="s">
         <v>370</v>
       </c>
@@ -9269,7 +9398,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="8:10">
+    <row r="98" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H98" t="s">
         <v>505</v>
       </c>
@@ -9280,7 +9409,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="8:10">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H99" t="s">
         <v>611</v>
       </c>
@@ -9291,7 +9420,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="100" spans="8:10">
+    <row r="100" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H100" t="s">
         <v>614</v>
       </c>
@@ -9302,7 +9431,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="8:10">
+    <row r="101" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H101" t="s">
         <v>616</v>
       </c>
@@ -9313,7 +9442,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="102" spans="8:10">
+    <row r="102" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H102" t="s">
         <v>618</v>
       </c>
@@ -9324,7 +9453,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="103" spans="8:10">
+    <row r="103" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H103" t="s">
         <v>621</v>
       </c>
@@ -9335,7 +9464,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="104" spans="8:10">
+    <row r="104" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H104" t="s">
         <v>513</v>
       </c>
@@ -9346,7 +9475,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="105" spans="8:10">
+    <row r="105" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H105" t="s">
         <v>624</v>
       </c>
@@ -9354,7 +9483,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="106" spans="8:10">
+    <row r="106" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H106" t="s">
         <v>515</v>
       </c>
@@ -9365,7 +9494,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="107" spans="8:10">
+    <row r="107" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H107" t="s">
         <v>518</v>
       </c>
@@ -9376,7 +9505,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="8:10">
+    <row r="108" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H108" t="s">
         <v>625</v>
       </c>
@@ -9387,7 +9516,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="109" spans="8:10">
+    <row r="109" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H109" t="s">
         <v>628</v>
       </c>
@@ -9398,7 +9527,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="110" spans="8:10">
+    <row r="110" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H110" t="s">
         <v>631</v>
       </c>
@@ -9409,7 +9538,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="111" spans="8:10">
+    <row r="111" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H111" t="s">
         <v>634</v>
       </c>
@@ -9420,7 +9549,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="112" spans="8:10">
+    <row r="112" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H112" t="s">
         <v>521</v>
       </c>
@@ -9431,7 +9560,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="8:10">
+    <row r="113" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H113" t="s">
         <v>636</v>
       </c>
@@ -9442,7 +9571,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="114" spans="8:10">
+    <row r="114" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H114" t="s">
         <v>524</v>
       </c>
@@ -9453,7 +9582,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="115" spans="8:10">
+    <row r="115" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H115" t="s">
         <v>640</v>
       </c>
@@ -9464,7 +9593,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="116" spans="8:10">
+    <row r="116" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H116" t="s">
         <v>641</v>
       </c>
@@ -9475,7 +9604,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="117" spans="8:10">
+    <row r="117" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H117" t="s">
         <v>382</v>
       </c>
@@ -9486,7 +9615,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="8:10">
+    <row r="118" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H118" t="s">
         <v>391</v>
       </c>
@@ -9497,7 +9626,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="8:10">
+    <row r="119" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H119" t="s">
         <v>643</v>
       </c>
@@ -9508,7 +9637,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="120" spans="8:10">
+    <row r="120" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H120" t="s">
         <v>532</v>
       </c>
@@ -9519,7 +9648,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="121" spans="8:10">
+    <row r="121" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H121" t="s">
         <v>537</v>
       </c>
@@ -9530,7 +9659,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="8:10">
+    <row r="122" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H122" t="s">
         <v>647</v>
       </c>
@@ -9541,7 +9670,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="123" spans="8:10">
+    <row r="123" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H123" t="s">
         <v>400</v>
       </c>
@@ -9552,7 +9681,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="124" spans="8:10">
+    <row r="124" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H124" t="s">
         <v>649</v>
       </c>
@@ -9563,7 +9692,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="125" spans="8:10">
+    <row r="125" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H125" t="s">
         <v>651</v>
       </c>
@@ -9574,7 +9703,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="126" spans="8:10">
+    <row r="126" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H126" t="s">
         <v>653</v>
       </c>
@@ -9585,7 +9714,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="127" spans="8:10">
+    <row r="127" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H127" t="s">
         <v>412</v>
       </c>
@@ -9596,7 +9725,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="8:10">
+    <row r="128" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H128" t="s">
         <v>655</v>
       </c>
@@ -9607,7 +9736,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="129" spans="8:10">
+    <row r="129" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H129" t="s">
         <v>658</v>
       </c>
@@ -9618,7 +9747,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="130" spans="8:10">
+    <row r="130" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H130" t="s">
         <v>661</v>
       </c>
@@ -9629,7 +9758,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="131" spans="8:10">
+    <row r="131" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H131" t="s">
         <v>664</v>
       </c>
@@ -9640,7 +9769,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="132" spans="8:10">
+    <row r="132" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H132" t="s">
         <v>667</v>
       </c>
@@ -9651,7 +9780,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="133" spans="8:10">
+    <row r="133" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H133" t="s">
         <v>669</v>
       </c>
@@ -9662,7 +9791,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="134" spans="8:10">
+    <row r="134" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H134" t="s">
         <v>672</v>
       </c>
@@ -9673,7 +9802,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="135" spans="8:10">
+    <row r="135" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H135" t="s">
         <v>675</v>
       </c>
@@ -9684,7 +9813,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="136" spans="8:10">
+    <row r="136" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H136" t="s">
         <v>678</v>
       </c>
@@ -9695,7 +9824,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="8:10">
+    <row r="137" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H137" t="s">
         <v>433</v>
       </c>
@@ -9706,7 +9835,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="138" spans="8:10">
+    <row r="138" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H138" t="s">
         <v>440</v>
       </c>
@@ -9717,7 +9846,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="139" spans="8:10">
+    <row r="139" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H139" t="s">
         <v>684</v>
       </c>
@@ -9728,7 +9857,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="140" spans="8:10">
+    <row r="140" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H140" t="s">
         <v>686</v>
       </c>
@@ -9739,7 +9868,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="141" spans="8:10">
+    <row r="141" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H141" t="s">
         <v>688</v>
       </c>
@@ -9750,7 +9879,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="142" spans="8:10">
+    <row r="142" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H142" t="s">
         <v>691</v>
       </c>
@@ -9761,7 +9890,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="143" spans="8:10">
+    <row r="143" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H143" t="s">
         <v>447</v>
       </c>
@@ -9772,7 +9901,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="144" spans="8:10">
+    <row r="144" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H144" t="s">
         <v>695</v>
       </c>
@@ -9783,7 +9912,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="145" spans="8:10">
+    <row r="145" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H145" t="s">
         <v>697</v>
       </c>
@@ -9794,7 +9923,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="146" spans="8:10">
+    <row r="146" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H146" t="s">
         <v>550</v>
       </c>
@@ -9805,7 +9934,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="147" spans="8:10">
+    <row r="147" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H147" t="s">
         <v>555</v>
       </c>
@@ -9816,7 +9945,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="8:10">
+    <row r="148" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H148" t="s">
         <v>558</v>
       </c>
@@ -9827,7 +9956,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="149" spans="8:10">
+    <row r="149" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H149" t="s">
         <v>561</v>
       </c>
@@ -9845,21 +9974,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>179</v>
       </c>
@@ -9873,7 +10002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>189</v>
       </c>
@@ -9890,7 +10019,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>79</v>
       </c>
@@ -9907,7 +10036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>212</v>
       </c>
@@ -9921,7 +10050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -9938,7 +10067,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -9955,7 +10084,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>237</v>
       </c>
@@ -9972,7 +10101,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>249</v>
       </c>
@@ -9989,7 +10118,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>259</v>
       </c>
@@ -10006,7 +10135,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>272</v>
       </c>
@@ -10023,7 +10152,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>281</v>
       </c>
@@ -10040,7 +10169,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -10057,7 +10186,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>301</v>
       </c>
@@ -10074,7 +10203,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -10091,7 +10220,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>323</v>
       </c>
@@ -10108,7 +10237,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -10125,7 +10254,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>343</v>
       </c>
@@ -10142,7 +10271,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>354</v>
       </c>
@@ -10159,7 +10288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>366</v>
       </c>
@@ -10176,7 +10305,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>377</v>
       </c>
@@ -10193,7 +10322,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -10210,7 +10339,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>73</v>
       </c>
@@ -10227,7 +10356,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>77</v>
       </c>
@@ -10244,7 +10373,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>418</v>
       </c>
@@ -10261,7 +10390,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>428</v>
       </c>
@@ -10278,7 +10407,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>436</v>
       </c>
@@ -10295,7 +10424,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -10312,7 +10441,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -10329,7 +10458,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>455</v>
       </c>
@@ -10346,7 +10475,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>460</v>
       </c>
@@ -10363,7 +10492,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>131</v>
       </c>
@@ -10380,7 +10509,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>133</v>
       </c>
@@ -10397,7 +10526,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>135</v>
       </c>
@@ -10414,7 +10543,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>139</v>
       </c>
@@ -10435,4 +10564,3284 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:X63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1" t="s">
+        <v>750</v>
+      </c>
+      <c r="O1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3">
+        <v>42729</v>
+      </c>
+      <c r="U3" t="s">
+        <v>752</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4">
+        <v>5071</v>
+      </c>
+      <c r="U4" t="s">
+        <v>752</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="X4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T5">
+        <v>383</v>
+      </c>
+      <c r="U5" t="s">
+        <v>752</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="X5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T6">
+        <v>1023</v>
+      </c>
+      <c r="U6" t="s">
+        <v>753</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="X6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>222</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7">
+        <v>14343</v>
+      </c>
+      <c r="U7" t="s">
+        <v>753</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="X7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" t="s">
+        <v>228</v>
+      </c>
+      <c r="O8" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T8">
+        <v>85142</v>
+      </c>
+      <c r="U8" t="s">
+        <v>754</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="X8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" t="s">
+        <v>240</v>
+      </c>
+      <c r="O9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>241</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T9">
+        <v>92863</v>
+      </c>
+      <c r="U9" t="s">
+        <v>755</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" t="s">
+        <v>252</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T10">
+        <v>106</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" t="s">
+        <v>260</v>
+      </c>
+      <c r="J11" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" t="s">
+        <v>262</v>
+      </c>
+      <c r="O11" t="s">
+        <v>263</v>
+      </c>
+      <c r="P11" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>265</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T11">
+        <v>119</v>
+      </c>
+      <c r="U11" t="s">
+        <v>755</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="X11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K12" t="s">
+        <v>275</v>
+      </c>
+      <c r="O12" t="s">
+        <v>217</v>
+      </c>
+      <c r="P12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>276</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T12">
+        <v>21</v>
+      </c>
+      <c r="U12" t="s">
+        <v>756</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="X12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" t="s">
+        <v>284</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="T13">
+        <v>31368</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="X13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>293</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T14">
+        <v>45172</v>
+      </c>
+      <c r="U14" t="s">
+        <v>757</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="X14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K15" t="s">
+        <v>304</v>
+      </c>
+      <c r="O15" t="s">
+        <v>223</v>
+      </c>
+      <c r="P15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>306</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15">
+        <v>1855</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="X15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" t="s">
+        <v>314</v>
+      </c>
+      <c r="O16" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>316</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16">
+        <v>585</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X16" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>494</v>
+      </c>
+      <c r="G17" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" t="s">
+        <v>323</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" t="s">
+        <v>325</v>
+      </c>
+      <c r="O17" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>327</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T17">
+        <v>6732</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" t="s">
+        <v>502</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>333</v>
+      </c>
+      <c r="J18" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>335</v>
+      </c>
+      <c r="O18" t="s">
+        <v>256</v>
+      </c>
+      <c r="P18" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>337</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T18">
+        <v>9975</v>
+      </c>
+      <c r="U18" t="s">
+        <v>753</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" t="s">
+        <v>504</v>
+      </c>
+      <c r="G19" t="s">
+        <v>343</v>
+      </c>
+      <c r="H19" t="s">
+        <v>343</v>
+      </c>
+      <c r="I19" t="s">
+        <v>344</v>
+      </c>
+      <c r="J19" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" t="s">
+        <v>346</v>
+      </c>
+      <c r="O19" t="s">
+        <v>269</v>
+      </c>
+      <c r="P19" t="s">
+        <v>347</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T19">
+        <v>1807</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20" t="s">
+        <v>355</v>
+      </c>
+      <c r="J20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" t="s">
+        <v>356</v>
+      </c>
+      <c r="O20" t="s">
+        <v>357</v>
+      </c>
+      <c r="P20" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>359</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T20">
+        <v>14780</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X20" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" t="s">
+        <v>525</v>
+      </c>
+      <c r="G21" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" t="s">
+        <v>366</v>
+      </c>
+      <c r="I21" t="s">
+        <v>367</v>
+      </c>
+      <c r="J21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K21" t="s">
+        <v>368</v>
+      </c>
+      <c r="O21" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>369</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T21">
+        <v>173064</v>
+      </c>
+      <c r="U21" t="s">
+        <v>758</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" t="s">
+        <v>378</v>
+      </c>
+      <c r="J22" t="s">
+        <v>379</v>
+      </c>
+      <c r="K22" t="s">
+        <v>380</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="T22">
+        <v>30</v>
+      </c>
+      <c r="U22" t="s">
+        <v>758</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="X22" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J23" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" t="s">
+        <v>389</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T23">
+        <v>792</v>
+      </c>
+      <c r="U23" t="s">
+        <v>758</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>397</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>398</v>
+      </c>
+      <c r="O24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>399</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T24">
+        <v>464085</v>
+      </c>
+      <c r="U24" t="s">
+        <v>753</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X24" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>740</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>406</v>
+      </c>
+      <c r="J25" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25" t="s">
+        <v>407</v>
+      </c>
+      <c r="O25" t="s">
+        <v>408</v>
+      </c>
+      <c r="P25" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>410</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T25">
+        <v>6463</v>
+      </c>
+      <c r="U25" t="s">
+        <v>753</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="X25" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I26" t="s">
+        <v>419</v>
+      </c>
+      <c r="J26" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" t="s">
+        <v>421</v>
+      </c>
+      <c r="O26" t="s">
+        <v>266</v>
+      </c>
+      <c r="P26" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>422</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T26">
+        <v>84677</v>
+      </c>
+      <c r="U26" t="s">
+        <v>753</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" t="s">
+        <v>428</v>
+      </c>
+      <c r="I27" t="s">
+        <v>429</v>
+      </c>
+      <c r="J27" t="s">
+        <v>430</v>
+      </c>
+      <c r="K27" t="s">
+        <v>431</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T27">
+        <v>1371</v>
+      </c>
+      <c r="U27" t="s">
+        <v>753</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="X27" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>741</v>
+      </c>
+      <c r="B28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C28" t="s">
+        <v>457</v>
+      </c>
+      <c r="D28" t="s">
+        <v>585</v>
+      </c>
+      <c r="G28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H28" t="s">
+        <v>436</v>
+      </c>
+      <c r="I28" t="s">
+        <v>437</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>438</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="T28">
+        <v>16718</v>
+      </c>
+      <c r="U28" t="s">
+        <v>753</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
+        <v>443</v>
+      </c>
+      <c r="J29" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" t="s">
+        <v>444</v>
+      </c>
+      <c r="O29" t="s">
+        <v>277</v>
+      </c>
+      <c r="P29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>445</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T29">
+        <v>103156</v>
+      </c>
+      <c r="U29" t="s">
+        <v>753</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="X29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" t="s">
+        <v>339</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>450</v>
+      </c>
+      <c r="J30" t="s">
+        <v>451</v>
+      </c>
+      <c r="K30" t="s">
+        <v>452</v>
+      </c>
+      <c r="O30" t="s">
+        <v>286</v>
+      </c>
+      <c r="P30" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>454</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T30">
+        <v>13313</v>
+      </c>
+      <c r="U30" t="s">
+        <v>753</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="X30" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" t="s">
+        <v>610</v>
+      </c>
+      <c r="G31" t="s">
+        <v>455</v>
+      </c>
+      <c r="H31" t="s">
+        <v>455</v>
+      </c>
+      <c r="I31" t="s">
+        <v>456</v>
+      </c>
+      <c r="J31" t="s">
+        <v>457</v>
+      </c>
+      <c r="K31" t="s">
+        <v>458</v>
+      </c>
+      <c r="O31" t="s">
+        <v>307</v>
+      </c>
+      <c r="P31" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>459</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T31">
+        <v>27025</v>
+      </c>
+      <c r="U31" t="s">
+        <v>753</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" t="s">
+        <v>460</v>
+      </c>
+      <c r="H32" t="s">
+        <v>460</v>
+      </c>
+      <c r="I32" t="s">
+        <v>461</v>
+      </c>
+      <c r="J32" t="s">
+        <v>462</v>
+      </c>
+      <c r="K32" t="s">
+        <v>463</v>
+      </c>
+      <c r="O32" t="s">
+        <v>374</v>
+      </c>
+      <c r="P32" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>464</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="T32">
+        <v>69</v>
+      </c>
+      <c r="U32" t="s">
+        <v>760</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="X32" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" t="s">
+        <v>466</v>
+      </c>
+      <c r="J33" t="s">
+        <v>467</v>
+      </c>
+      <c r="K33" t="s">
+        <v>468</v>
+      </c>
+      <c r="O33" t="s">
+        <v>317</v>
+      </c>
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>469</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T33">
+        <v>109498</v>
+      </c>
+      <c r="U33" t="s">
+        <v>761</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" t="s">
+        <v>472</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+      <c r="K34" t="s">
+        <v>474</v>
+      </c>
+      <c r="O34" t="s">
+        <v>328</v>
+      </c>
+      <c r="P34" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>475</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T34">
+        <v>7858</v>
+      </c>
+      <c r="U34" t="s">
+        <v>759</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="X34" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>744</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" t="s">
+        <v>401</v>
+      </c>
+      <c r="G35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" t="s">
+        <v>476</v>
+      </c>
+      <c r="J35" t="s">
+        <v>477</v>
+      </c>
+      <c r="K35" t="s">
+        <v>478</v>
+      </c>
+      <c r="O35" t="s">
+        <v>338</v>
+      </c>
+      <c r="P35" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>479</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="T35">
+        <v>55687</v>
+      </c>
+      <c r="U35" t="s">
+        <v>762</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X35" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D36" t="s">
+        <v>681</v>
+      </c>
+      <c r="G36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" t="s">
+        <v>480</v>
+      </c>
+      <c r="J36" t="s">
+        <v>383</v>
+      </c>
+      <c r="K36" t="s">
+        <v>481</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="T36">
+        <v>60</v>
+      </c>
+      <c r="U36" t="s">
+        <v>762</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="X36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D37" t="s">
+        <v>683</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T37">
+        <v>55</v>
+      </c>
+      <c r="U37" t="s">
+        <v>762</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="X37" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>745</v>
+      </c>
+      <c r="B38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" t="s">
+        <v>700</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="T38">
+        <v>52</v>
+      </c>
+      <c r="U38" t="s">
+        <v>762</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="X38" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O39" t="s">
+        <v>348</v>
+      </c>
+      <c r="P39" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>492</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="T39">
+        <v>7385</v>
+      </c>
+      <c r="U39" t="s">
+        <v>757</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O40" t="s">
+        <v>360</v>
+      </c>
+      <c r="P40" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>496</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="T40">
+        <v>32504</v>
+      </c>
+      <c r="U40" t="s">
+        <v>763</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="X40" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O41" t="s">
+        <v>499</v>
+      </c>
+      <c r="P41" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>501</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="T41">
+        <v>512</v>
+      </c>
+      <c r="U41" t="s">
+        <v>763</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="X41" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O42" t="s">
+        <v>370</v>
+      </c>
+      <c r="P42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>503</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T42">
+        <v>13527</v>
+      </c>
+      <c r="U42" t="s">
+        <v>764</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="X42" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q43" t="s">
+        <v>767</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="T43">
+        <v>542</v>
+      </c>
+      <c r="U43" t="s">
+        <v>766</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="X43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="W44" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="X44" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q45" t="s">
+        <v>768</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="T45">
+        <v>1050</v>
+      </c>
+      <c r="U45" t="s">
+        <v>764</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q46" t="s">
+        <v>769</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="T46">
+        <v>119361</v>
+      </c>
+      <c r="U46" t="s">
+        <v>765</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="X46" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q47" t="s">
+        <v>770</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="T47">
+        <v>14568</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="X47" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q48" t="s">
+        <v>771</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="T48">
+        <v>1777</v>
+      </c>
+      <c r="U48" t="s">
+        <v>772</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="X48" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q49" t="s">
+        <v>773</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="T49">
+        <v>668</v>
+      </c>
+      <c r="U49" t="s">
+        <v>764</v>
+      </c>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O50" t="s">
+        <v>382</v>
+      </c>
+      <c r="P50" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>526</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="T50">
+        <v>340030</v>
+      </c>
+      <c r="U50" t="s">
+        <v>774</v>
+      </c>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O51" t="s">
+        <v>391</v>
+      </c>
+      <c r="P51" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>529</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T51">
+        <v>348</v>
+      </c>
+      <c r="U51" t="s">
+        <v>755</v>
+      </c>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O52" t="s">
+        <v>532</v>
+      </c>
+      <c r="P52" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>534</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="T52">
+        <v>2022</v>
+      </c>
+      <c r="U52" t="s">
+        <v>774</v>
+      </c>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S53" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="T53">
+        <v>22</v>
+      </c>
+      <c r="U53" t="s">
+        <v>774</v>
+      </c>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O54" t="s">
+        <v>400</v>
+      </c>
+      <c r="P54" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>540</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="T54">
+        <v>37187</v>
+      </c>
+      <c r="U54" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S55" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55" t="s">
+        <v>774</v>
+      </c>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O56" t="s">
+        <v>412</v>
+      </c>
+      <c r="P56" t="s">
+        <v>413</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="U56" t="s">
+        <v>775</v>
+      </c>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O57" t="s">
+        <v>447</v>
+      </c>
+      <c r="P57" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>547</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T57">
+        <v>459458</v>
+      </c>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O58" t="s">
+        <v>550</v>
+      </c>
+      <c r="P58" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>552</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T58">
+        <v>645</v>
+      </c>
+      <c r="U58" t="s">
+        <v>776</v>
+      </c>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S59" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="T59">
+        <v>358</v>
+      </c>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O60" t="s">
+        <v>558</v>
+      </c>
+      <c r="P60" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>560</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="T60">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="61" spans="15:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S61" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="T61">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="63" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="O63" t="s">
+        <v>508</v>
+      </c>
+      <c r="P63" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W1:X63">
+    <sortCondition ref="X1:X63"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:M31" si="0">COUNTIF(J:J,L1)</f>
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L4" t="s">
+        <v>323</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>436</v>
+      </c>
+      <c r="R6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" t="s">
+        <v>428</v>
+      </c>
+      <c r="L8" t="s">
+        <v>428</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>366</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>436</v>
+      </c>
+      <c r="L9" t="s">
+        <v>436</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" t="s">
+        <v>455</v>
+      </c>
+      <c r="L10" t="s">
+        <v>366</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>323</v>
+      </c>
+      <c r="R12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>314</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>354</v>
+      </c>
+      <c r="R13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>428</v>
+      </c>
+      <c r="R15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>455</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J17" t="s">
+        <v>752</v>
+      </c>
+      <c r="L17" t="s">
+        <v>764</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" t="s">
+        <v>368</v>
+      </c>
+      <c r="J18" t="s">
+        <v>753</v>
+      </c>
+      <c r="L18" t="s">
+        <v>766</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" t="s">
+        <v>380</v>
+      </c>
+      <c r="J19" t="s">
+        <v>754</v>
+      </c>
+      <c r="L19" t="s">
+        <v>772</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" t="s">
+        <v>389</v>
+      </c>
+      <c r="J20" t="s">
+        <v>755</v>
+      </c>
+      <c r="L20" t="s">
+        <v>776</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" t="s">
+        <v>756</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J22" t="s">
+        <v>757</v>
+      </c>
+      <c r="L22" t="s">
+        <v>237</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" t="s">
+        <v>421</v>
+      </c>
+      <c r="J23" t="s">
+        <v>758</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" t="s">
+        <v>431</v>
+      </c>
+      <c r="J24" t="s">
+        <v>760</v>
+      </c>
+      <c r="L24" t="s">
+        <v>301</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>436</v>
+      </c>
+      <c r="B25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>438</v>
+      </c>
+      <c r="J25" t="s">
+        <v>761</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" t="s">
+        <v>444</v>
+      </c>
+      <c r="J26" t="s">
+        <v>759</v>
+      </c>
+      <c r="L26" t="s">
+        <v>343</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" t="s">
+        <v>452</v>
+      </c>
+      <c r="J27" t="s">
+        <v>762</v>
+      </c>
+      <c r="L27" t="s">
+        <v>377</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C28" t="s">
+        <v>457</v>
+      </c>
+      <c r="D28" t="s">
+        <v>458</v>
+      </c>
+      <c r="J28" t="s">
+        <v>763</v>
+      </c>
+      <c r="L28" t="s">
+        <v>418</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C29" t="s">
+        <v>462</v>
+      </c>
+      <c r="D29" t="s">
+        <v>463</v>
+      </c>
+      <c r="J29" t="s">
+        <v>764</v>
+      </c>
+      <c r="L29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>752</v>
+      </c>
+      <c r="B30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" t="s">
+        <v>468</v>
+      </c>
+      <c r="J30" t="s">
+        <v>766</v>
+      </c>
+      <c r="L30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>472</v>
+      </c>
+      <c r="C31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" t="s">
+        <v>474</v>
+      </c>
+      <c r="J31" t="s">
+        <v>765</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" t="s">
+        <v>478</v>
+      </c>
+      <c r="J32" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" t="s">
+        <v>481</v>
+      </c>
+      <c r="J33" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J35" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J53" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J61" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:M31">
+    <sortCondition descending="1" ref="M1"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>